--- a/data/trans_dic/P23_9_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_9_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas</t>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,15%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,11</t>
+          <t>0,0; 19,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 14,94</t>
+          <t>2,53; 27,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,68</t>
+          <t>0,0; 23,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 19,49</t>
+          <t>3,53; 32,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,86</t>
+          <t>2,13; 19,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,9</t>
+          <t>0,0; 13,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 12,79</t>
+          <t>2,37; 19,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,06</t>
+          <t>0,0; 16,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,53</t>
+          <t>1,5; 15,01</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 16,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 17,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 18,29</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,46</t>
+          <t>0,0; 15,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 30,39</t>
+          <t>2,54; 53,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 33,09</t>
+          <t>1,8; 48,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 16,97</t>
+          <t>0,0; 13,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,77; 25,54</t>
+          <t>3,3; 17,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 35,5</t>
+          <t>12,31; 34,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,72</t>
+          <t>11,71; 34,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 23,8</t>
+          <t>5,54; 23,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,42; 27,73</t>
+          <t>2,43; 12,03</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,91; 38,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 38,02</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 13,44</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,2; 46,0</t>
+          <t>11,62; 32,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 23,2</t>
+          <t>12,56; 34,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 40,7</t>
+          <t>12,22; 32,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 25,16</t>
+          <t>12,8; 36,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 25,99</t>
+          <t>13,37; 29,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,9; 34,36</t>
+          <t>13,61; 29,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 32,09</t>
+          <t>17,7; 35,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 21,91</t>
+          <t>3,85; 15,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 33,43</t>
+          <t>14,38; 27,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,28; 28,16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 31,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 21,83</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 19,43</t>
+          <t>4,8; 19,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 34,08</t>
+          <t>15,02; 34,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 22,14</t>
+          <t>8,64; 26,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 25,0</t>
+          <t>7,56; 23,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,18; 31,25</t>
+          <t>12,1; 28,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,73; 32,41</t>
+          <t>15,27; 31,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,33; 21,19</t>
+          <t>15,38; 33,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,0; 29,95</t>
+          <t>8,08; 22,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,49; 25,89</t>
+          <t>10,61; 20,66</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 30,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 25,97</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,9; 19,4</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>18,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 26,19</t>
+          <t>12,38; 32,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,58; 38,66</t>
+          <t>18,76; 48,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,99; 29,0</t>
+          <t>11,46; 29,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,07; 24,97</t>
+          <t>1,4; 12,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 32,01</t>
+          <t>7,68; 26,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,7; 35,32</t>
+          <t>17,01; 42,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,06; 23,23</t>
+          <t>14,48; 39,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,44; 32,17</t>
+          <t>10,43; 34,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,07; 29,44</t>
+          <t>11,58; 25,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 40,79</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 29,97</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 21,84</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,7; 30,0</t>
+          <t>5,33; 28,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,24; 31,5</t>
+          <t>7,66; 31,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,05; 34,63</t>
+          <t>8,33; 35,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,9; 32,69</t>
+          <t>5,98; 34,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 44,89</t>
+          <t>7,53; 35,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 26,33</t>
+          <t>10,23; 40,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,3; 27,3</t>
+          <t>6,67; 29,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,19; 36,0</t>
+          <t>14,49; 45,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,92; 26,93</t>
+          <t>9,75; 27,08</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12,18; 32,45</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 28,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 36,5</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20,39%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,14; 21,01</t>
+          <t>9,35; 16,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,07; 21,4</t>
+          <t>16,33; 28,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,31</t>
+          <t>12,17; 24,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,85</t>
+          <t>8,65; 17,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 23,44</t>
+          <t>12,16; 19,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,08; 24,54</t>
+          <t>16,04; 24,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,29; 18,6</t>
+          <t>16,62; 24,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,38; 21,24</t>
+          <t>10,79; 19,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,87; 21,04</t>
+          <t>11,64; 16,91</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 23,95</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 22,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 16,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,15%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10845</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8818</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17025</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9562</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4934</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9995</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14771</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15779</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18813</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23182</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21250</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2678; 29533</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30547</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4906; 45546</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2858; 26519</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16697</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2909; 24135</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23778</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3616; 36178</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6133; 37015</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6505; 44363</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7838; 52076</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6908</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23703</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24634</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8430</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13736</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>28328</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26985</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20218</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20644</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52030</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>51619</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28648</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 26941</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3565; 75007</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2772; 74354</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 29934</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5447; 29174</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15602; 44217</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14791; 44015</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9001; 38780</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8126; 40147</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29136; 102283</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24515; 106691</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11783; 52437</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>32260</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29963</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30413</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43529</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53292</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>42192</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19524</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>85552</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>72155</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>81628</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>63053</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18430; 52113</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16880; 46517</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16818; 45145</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23082; 65620</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35296; 78352</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28181; 61984</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34796; 69894</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9221; 37649</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>60777; 117849</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>52174; 96169</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>60053; 106296</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39206; 91658</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18119</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37246</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24380</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27952</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41632</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>41650</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38557</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29594</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59751</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>78896</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>62937</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>57546</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8850; 35180</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23895; 54727</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13004; 39525</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14865; 45822</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25886; 60564</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27904; 58078</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26025; 57055</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17188; 47528</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>42241; 82285</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>60070; 102669</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46866; 83026</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36451; 79452</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>32598</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40352</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23897</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9006</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17782</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25679</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22492</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27549</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>50379</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>66031</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46389</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36554</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19489; 50398</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24416; 63359</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13935; 36410</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2171; 19906</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8762; 30624</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15655; 38935</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13041; 35732</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13972; 46736</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31438; 70066</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>47925; 90618</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31294; 63448</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22186; 63019</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17009</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15286</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16639</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>21654</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23088</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23169</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17453</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>51502</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>40098</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>38454</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>34092</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>73155</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5825; 31584</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6498; 26800</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7030; 29801</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7476; 42850</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10105; 47687</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10545; 41811</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7095; 31489</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26396; 82362</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23756; 65981</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22891; 60968</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>20462; 55067</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>43164; 112131</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>112102</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>157394</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>128781</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>127595</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>159093</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>165951</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>166696</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>154544</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>271195</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>323346</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>295478</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>282139</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>82819; 148002</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>123228; 213339</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>94439; 190523</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>88554; 177216</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>124682; 203122</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>133397; 206334</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>134779; 200953</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>116152; 206476</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>222417; 323171</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>274095; 379852</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>244806; 362527</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>227095; 343955</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>